--- a/flows/EMHY_fund_flow_data.xlsx
+++ b/flows/EMHY_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2993"/>
+  <dimension ref="A1:B3011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30365,6 +30365,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3000" t="n">
+        <v>1.83269</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3002" t="n">
+        <v>9.162125</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3008" t="n">
+        <v>7.3772</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3010" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3011" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
